--- a/UpdatedFile.xlsx
+++ b/UpdatedFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="66">
   <si>
     <t>employeeID</t>
   </si>
@@ -49,9 +49,21 @@
     <t>HoursWork Manual</t>
   </si>
   <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Zhe</t>
+  </si>
+  <si>
     <t>Albert</t>
   </si>
   <si>
+    <t>tom</t>
+  </si>
+  <si>
+    <t>Cao</t>
+  </si>
+  <si>
     <t>Sugianto</t>
   </si>
   <si>
@@ -70,138 +82,145 @@
     <t>pestcontrol</t>
   </si>
   <si>
+    <t>0:00:06.872445</t>
+  </si>
+  <si>
+    <t>0:00:02.458938</t>
+  </si>
+  <si>
+    <t>0:00:00</t>
+  </si>
+  <si>
+    <t>0:00:03.743941</t>
+  </si>
+  <si>
+    <t>0:00:04.922706</t>
+  </si>
+  <si>
     <t>0:00:07.102773</t>
   </si>
   <si>
+    <t>0:00:10.575095</t>
+  </si>
+  <si>
+    <t>0:01:10.933267</t>
+  </si>
+  <si>
     <t>0:00:10.610964</t>
   </si>
   <si>
     <t>0:00:07.918014</t>
   </si>
   <si>
-    <t>0:00:03.743941</t>
-  </si>
-  <si>
-    <t>0:00:04.922706</t>
-  </si>
-  <si>
-    <t>0:01:10.933267</t>
-  </si>
-  <si>
-    <t>0:00:10.575095</t>
+    <t>0:00:15.836342</t>
+  </si>
+  <si>
+    <t>0:00:27.232056</t>
+  </si>
+  <si>
+    <t>0:00:49.175460</t>
+  </si>
+  <si>
+    <t>0:00:16.439688</t>
+  </si>
+  <si>
+    <t>0:39:38.277633</t>
+  </si>
+  <si>
+    <t>0:03:36.575308</t>
+  </si>
+  <si>
+    <t>0:07:47.639787</t>
+  </si>
+  <si>
+    <t>0:00:28.945677</t>
   </si>
   <si>
     <t>0:01:29.252430</t>
   </si>
   <si>
+    <t>0:00:41.030828</t>
+  </si>
+  <si>
+    <t>2914348 days, 8:13:51.009247</t>
+  </si>
+  <si>
+    <t>2:02:14.932321</t>
+  </si>
+  <si>
+    <t>2914348 days, 5:53:31.768982</t>
+  </si>
+  <si>
+    <t>3:56:28.635774</t>
+  </si>
+  <si>
+    <t>2914347 days, 9:34:38.478210</t>
+  </si>
+  <si>
+    <t>0:02:29.085050</t>
+  </si>
+  <si>
     <t>0:00:22.546350</t>
   </si>
   <si>
     <t>0:00:53.954022</t>
   </si>
   <si>
-    <t>0:00:15.836342</t>
-  </si>
-  <si>
-    <t>0:00:27.232056</t>
-  </si>
-  <si>
-    <t>0:00:49.175460</t>
-  </si>
-  <si>
-    <t>0:00:16.439688</t>
-  </si>
-  <si>
-    <t>0:39:38.277633</t>
-  </si>
-  <si>
-    <t>0:03:36.575308</t>
-  </si>
-  <si>
-    <t>0:07:47.639787</t>
-  </si>
-  <si>
-    <t>0:00:28.945677</t>
-  </si>
-  <si>
-    <t>0:02:29.085050</t>
-  </si>
-  <si>
-    <t>0:00:00</t>
-  </si>
-  <si>
-    <t>0:00:41.030828</t>
-  </si>
-  <si>
-    <t>2914348 days, 8:13:51.009247</t>
-  </si>
-  <si>
-    <t>2:02:14.932321</t>
-  </si>
-  <si>
-    <t>2914348 days, 5:53:31.768982</t>
-  </si>
-  <si>
-    <t>3:56:28.635774</t>
-  </si>
-  <si>
-    <t>2914347 days, 9:34:38.478210</t>
-  </si>
-  <si>
     <t>0:00:03.742916</t>
   </si>
   <si>
+    <t>10:01:00</t>
+  </si>
+  <si>
+    <t>9:50:00</t>
+  </si>
+  <si>
+    <t>11:00:00</t>
+  </si>
+  <si>
+    <t>12:00:00</t>
+  </si>
+  <si>
+    <t>14:02:00</t>
+  </si>
+  <si>
     <t>15:00:00</t>
   </si>
   <si>
+    <t>273 days, 0:00:00</t>
+  </si>
+  <si>
+    <t>3205356 days, 13:01:01</t>
+  </si>
+  <si>
+    <t>10:00:00</t>
+  </si>
+  <si>
+    <t>3245989 days, 11:02:01</t>
+  </si>
+  <si>
+    <t>8:01:00</t>
+  </si>
+  <si>
+    <t>2914348 days, 17:01:01</t>
+  </si>
+  <si>
+    <t>11:08:00</t>
+  </si>
+  <si>
     <t>9:59:00</t>
   </si>
   <si>
     <t>6:33:00</t>
-  </si>
-  <si>
-    <t>10:01:00</t>
-  </si>
-  <si>
-    <t>9:50:00</t>
-  </si>
-  <si>
-    <t>11:00:00</t>
-  </si>
-  <si>
-    <t>12:00:00</t>
-  </si>
-  <si>
-    <t>14:02:00</t>
-  </si>
-  <si>
-    <t>11:08:00</t>
-  </si>
-  <si>
-    <t>273 days, 0:00:00</t>
-  </si>
-  <si>
-    <t>3205356 days, 13:01:01</t>
-  </si>
-  <si>
-    <t>10:00:00</t>
-  </si>
-  <si>
-    <t>3245989 days, 11:02:01</t>
-  </si>
-  <si>
-    <t>8:01:00</t>
-  </si>
-  <si>
-    <t>2914348 days, 17:01:01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -260,8 +279,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -602,37 +621,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2">
-        <v>8.220802083333333e-05</v>
+        <v>7.95421875e-05</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G2" s="3">
-        <v>43752.66075719265</v>
+        <v>43764.93706161602</v>
       </c>
       <c r="H2" s="3">
-        <v>43752.66083940067</v>
+        <v>43764.9371411582</v>
       </c>
       <c r="I2" s="3">
-        <v>43752.66075719265</v>
+        <v>43764.93706161602</v>
       </c>
       <c r="J2" s="3">
-        <v>43752.66083940067</v>
+        <v>43764.9371411582</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -640,37 +659,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2">
-        <v>0.0001228120833333333</v>
+        <v>2.845993055555555e-05</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G3" s="3">
-        <v>43754.59831675302</v>
+        <v>43764.93983235995</v>
       </c>
       <c r="H3" s="3">
-        <v>43754.5984395651</v>
+        <v>43764.93986081988</v>
       </c>
       <c r="I3" s="3">
-        <v>43754.59831675302</v>
+        <v>43764.93983235995</v>
       </c>
       <c r="J3" s="3">
-        <v>43754.5984395651</v>
+        <v>43764.93986081988</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -678,37 +697,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2">
-        <v>9.164368055555556e-05</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G4" s="3">
-        <v>43752.70926767093</v>
-      </c>
-      <c r="H4" s="3">
-        <v>43752.70935931461</v>
+        <v>43764.969857672</v>
       </c>
       <c r="I4" s="3">
-        <v>43752.70926767093</v>
-      </c>
-      <c r="J4" s="3">
-        <v>43752.70935931461</v>
+        <v>43764.50763888889</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -719,16 +729,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2">
         <v>4.333265046296296e-05</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G5" s="3">
         <v>43753.4297817632</v>
@@ -743,10 +753,10 @@
         <v>43753.42982508398</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -757,16 +767,16 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2">
         <v>5.697576388888889e-05</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G6" s="3">
         <v>43753.43000746721</v>
@@ -781,10 +791,10 @@
         <v>43753.43006444297</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -795,34 +805,34 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2">
-        <v>0.000820986886574074</v>
+        <v>8.220802083333333e-05</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G7" s="3">
-        <v>43752.79260766219</v>
+        <v>43752.66075719265</v>
       </c>
       <c r="H7" s="3">
-        <v>43752.79342864907</v>
+        <v>43752.66083940067</v>
       </c>
       <c r="I7" s="3">
-        <v>43752.79260766219</v>
+        <v>43752.66075719265</v>
       </c>
       <c r="J7" s="3">
-        <v>43752.79342864907</v>
+        <v>43752.66083940067</v>
       </c>
       <c r="K7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -833,16 +843,16 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2">
         <v>0.0001223969328703704</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G8" s="3">
         <v>43753.59442640188</v>
@@ -857,10 +867,10 @@
         <v>43753.59454879881</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -868,37 +878,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2">
-        <v>0.001033014236111111</v>
+        <v>0.000820986886574074</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G9" s="3">
-        <v>43761.67356772816</v>
+        <v>43752.79260766219</v>
       </c>
       <c r="H9" s="3">
-        <v>43761.67460074239</v>
+        <v>43752.79342864907</v>
       </c>
       <c r="I9" s="3">
-        <v>43761.04166666666</v>
+        <v>43752.79260766219</v>
       </c>
       <c r="J9" s="3">
-        <v>43761.66666666666</v>
+        <v>43752.79342864907</v>
       </c>
       <c r="K9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L9" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -906,37 +916,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2">
-        <v>0.000260953125</v>
+        <v>0.0001228120833333333</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G10" s="3">
-        <v>43761.67692165983</v>
+        <v>43754.59831675302</v>
       </c>
       <c r="H10" s="3">
-        <v>43761.67718261295</v>
+        <v>43754.5984395651</v>
       </c>
       <c r="I10" s="3">
-        <v>43761.16666666666</v>
+        <v>43754.59831675302</v>
       </c>
       <c r="J10" s="3">
-        <v>43761.58263888889</v>
+        <v>43754.5984395651</v>
       </c>
       <c r="K10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L10" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -944,37 +954,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2">
-        <v>0.0006244678472222223</v>
+        <v>9.164368055555556e-05</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G11" s="3">
-        <v>43761.67976832121</v>
+        <v>43752.70926767093</v>
       </c>
       <c r="H11" s="3">
-        <v>43761.68039278907</v>
+        <v>43752.70935931461</v>
       </c>
       <c r="I11" s="3">
-        <v>43761.18541666667</v>
+        <v>43752.70926767093</v>
       </c>
       <c r="J11" s="3">
-        <v>43761.45833333334</v>
+        <v>43752.70935931461</v>
       </c>
       <c r="K11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -985,16 +995,16 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E12" s="2">
         <v>0.0001832909953703704</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G12" s="3">
         <v>43761.6839216977</v>
@@ -1009,10 +1019,10 @@
         <v>43761.5</v>
       </c>
       <c r="K12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1023,16 +1033,16 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E13" s="2">
         <v>0.0003151858333333333</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G13" s="3">
         <v>43761.68722475476</v>
@@ -1047,10 +1057,10 @@
         <v>43761.58263888889</v>
       </c>
       <c r="K13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1061,16 +1071,16 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E14" s="2">
         <v>0.0005691604166666666</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G14" s="3">
         <v>43761.68907852492</v>
@@ -1085,10 +1095,10 @@
         <v>43761.5</v>
       </c>
       <c r="K14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1099,16 +1109,16 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E15" s="2">
         <v>0.0001902741666666667</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G15" s="3">
         <v>43761.69196012164</v>
@@ -1123,10 +1133,10 @@
         <v>43761.54166666666</v>
       </c>
       <c r="K15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1137,16 +1147,16 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E16" s="2">
         <v>0.02752636149305556</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G16" s="3">
         <v>43761.69493182989</v>
@@ -1161,10 +1171,10 @@
         <v>43761.66736111111</v>
       </c>
       <c r="K16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1175,16 +1185,16 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E17" s="2">
         <v>0.002506658657407407</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G17" s="3">
         <v>43761.72350101497</v>
@@ -1199,10 +1209,10 @@
         <v>43761.54166666666</v>
       </c>
       <c r="K17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1213,16 +1223,16 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E18" s="2">
         <v>0.005412497534722223</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G18" s="3">
         <v>43761.8945397005</v>
@@ -1237,10 +1247,10 @@
         <v>43761.58263888889</v>
       </c>
       <c r="K18" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1251,16 +1261,16 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E19" s="2">
         <v>0.0003350194097222222</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G19" s="3">
         <v>43761.91145255493</v>
@@ -1275,10 +1285,10 @@
         <v>43761.54166666666</v>
       </c>
       <c r="K19" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1289,34 +1299,25 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.001725521412037037</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G20" s="3">
-        <v>43752.50413433206</v>
-      </c>
-      <c r="H20" s="3">
-        <v>43752.50585985347</v>
+        <v>43761.9141974842</v>
       </c>
       <c r="I20" s="3">
-        <v>43752.04166666666</v>
-      </c>
-      <c r="J20" s="3">
-        <v>43752.50555555556</v>
+        <v>43761.04166666666</v>
       </c>
       <c r="K20" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L20" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1327,25 +1328,34 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.001033014236111111</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G21" s="3">
-        <v>43761.9141974842</v>
+        <v>43761.67356772816</v>
+      </c>
+      <c r="H21" s="3">
+        <v>43761.67460074239</v>
       </c>
       <c r="I21" s="3">
         <v>43761.04166666666</v>
       </c>
+      <c r="J21" s="3">
+        <v>43761.66666666666</v>
+      </c>
       <c r="K21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L21" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1356,16 +1366,16 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E22" s="2">
         <v>0.0004748938425925926</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G22" s="3">
         <v>43752.50621143312</v>
@@ -1380,10 +1390,10 @@
         <v>43752</v>
       </c>
       <c r="K22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L22" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1394,16 +1404,16 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E23" s="2">
         <v>2914348.342951496</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G23" s="3">
         <v>43752.69942118912</v>
@@ -1418,10 +1428,10 @@
         <v>2958101.042372685</v>
       </c>
       <c r="K23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L23" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1432,16 +1442,16 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E24" s="2">
         <v>0.08489505001157407</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G24" s="3">
         <v>43752.71092398038</v>
@@ -1456,10 +1466,10 @@
         <v>43752.79166666666</v>
       </c>
       <c r="K24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1470,16 +1480,16 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E25" s="2">
         <v>2914348.245506586</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G25" s="3">
         <v>43752.79686609962</v>
@@ -1494,10 +1504,10 @@
         <v>2958101.042372685</v>
       </c>
       <c r="K25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L25" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1508,16 +1518,16 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E26" s="2">
         <v>0.1642203214583333</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G26" s="3">
         <v>43753.42604207517</v>
@@ -1532,10 +1542,10 @@
         <v>43753.58402777778</v>
       </c>
       <c r="K26" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L26" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1546,16 +1556,16 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E27" s="2">
         <v>2914347.399056461</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G27" s="3">
         <v>43753.64331622446</v>
@@ -1570,10 +1580,124 @@
         <v>2958101.042372685</v>
       </c>
       <c r="K27" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L27" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.001725521412037037</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="3">
+        <v>43752.50413433206</v>
+      </c>
+      <c r="H28" s="3">
+        <v>43752.50585985347</v>
+      </c>
+      <c r="I28" s="3">
+        <v>43752.04166666666</v>
+      </c>
+      <c r="J28" s="3">
+        <v>43752.50555555556</v>
+      </c>
+      <c r="K28" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.000260953125</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="3">
+        <v>43761.67692165983</v>
+      </c>
+      <c r="H29" s="3">
+        <v>43761.67718261295</v>
+      </c>
+      <c r="I29" s="3">
+        <v>43761.16666666666</v>
+      </c>
+      <c r="J29" s="3">
+        <v>43761.58263888889</v>
+      </c>
+      <c r="K29" t="s">
+        <v>48</v>
+      </c>
+      <c r="L29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.0006244678472222223</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="3">
+        <v>43761.67976832121</v>
+      </c>
+      <c r="H30" s="3">
+        <v>43761.68039278907</v>
+      </c>
+      <c r="I30" s="3">
+        <v>43761.18541666667</v>
+      </c>
+      <c r="J30" s="3">
+        <v>43761.45833333334</v>
+      </c>
+      <c r="K30" t="s">
+        <v>49</v>
+      </c>
+      <c r="L30" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
